--- a/UserGuideMemo.xlsx
+++ b/UserGuideMemo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuojieLi\Desktop\AWS\SSA学习资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuojieLi\Desktop\AWS\AWS SSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53B58782-B069-4D50-81E4-CF8420491693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838384F8-E158-43F9-92DC-DF770B5D0664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="25105" windowHeight="14889" xr2:uid="{1A12F790-79B3-4F98-B434-912159B977EA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <r>
       <t xml:space="preserve">1，EC2 </t>
@@ -4488,6 +4488,98 @@
   </si>
   <si>
     <t>Amazon EC2 基础设施是可编程的，您可以使用脚本自动处理部署流程、安装和配置软件及应用程序，以及引导您的虚拟服务器。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>请注意，如果您计划在多个区域中启动实例，则需要在每个区域中创建密钥对</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如果您计划在多个区域中启动实例，则需要在每个区域中创建安全组。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>EC2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即使实例处于闲置状态也要计费。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置 CloudWatch 警报以在您的使用量超出免费套餐时向您发出通知</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AWS Trusted Advisor 最佳实践检查表</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>利用 Trusted Advisor 让 Amazon EC2 Windows 的更新程度与 AWS 提供的 Windows 驱动程序保持一致。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用 SNS 主题接收新驱动程序版本的更新。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AWS 每月发布新的 Windows AMI，其中包含最新的操作系统补丁、驱动程序和启动代理。您应该在启动新实例或构建自己的自定义映像时利用最新的 AMI。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AWS 中的 Windows 实例应遵循以下高级最佳实践：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最小访问权限</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最小权限</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>配置管理</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更改管理</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>审计日志</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>对操作系统与您的数据分别使用单独的 Amazon EBS 卷。确保含有您数据的卷可在实例终止后保留。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用 Amazon EBS 快照定期备份您的 EBS 卷，并从您的实例创建 Amazon 系统映像 (AMI)，以便保存配置以作为启动未来实例的模板。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>跨多个可用区部署应用程序的关键组件，并适当地复制数据。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5164,10 +5256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EFE39-E890-4EA9-88FC-B694BF0FB15C}">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.95" x14ac:dyDescent="0.4"/>
@@ -5420,14 +5512,99 @@
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15.65" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
       <c r="A162" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15.65" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
       <c r="A163" s="5" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A165" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A166" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A168" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A170" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A172" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B173" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A175" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A177" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A179" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B180" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B181" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B182" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B183" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B184" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A186" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A188" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A190" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/UserGuideMemo.xlsx
+++ b/UserGuideMemo.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuojieLi\Desktop\AWS\AWS SSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838384F8-E158-43F9-92DC-DF770B5D0664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA84F709-8391-4E3F-B313-D51BB94EF31B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="25105" windowHeight="14889" xr2:uid="{1A12F790-79B3-4F98-B434-912159B977EA}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="24983" windowHeight="14889" activeTab="2" xr2:uid="{1A12F790-79B3-4F98-B434-912159B977EA}"/>
   </bookViews>
   <sheets>
     <sheet name="EC2" sheetId="1" r:id="rId1"/>
+    <sheet name="AMI" sheetId="2" r:id="rId2"/>
+    <sheet name="IAM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <r>
       <t xml:space="preserve">1，EC2 </t>
@@ -4580,6 +4582,298 @@
   </si>
   <si>
     <t>跨多个可用区部署应用程序的关键组件，并适当地复制数据。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用完 AMI 之后，可以取消注册它。取消注册 AMI 之后，便无法将其用于启动新实例。从 AMI 启动的现有实例不受影响。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>当您从 Windows AMI 启动实例时，Windows 实例的根设备是一个 Amazon EBS 卷。Windows AMI 不支持根设备的实例存储。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订阅 Windows AMI 通知</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>启动实例之前，必须选择要使用的 AMI。选择 AMI 时，对于将启动的实例，可能需要考虑以下要求：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <r>
+      <t>操作系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统</t>
+    </r>
+  </si>
+  <si>
+    <t>架构：32 位 (i386)、64 位 (x86_64) 或 64 位 ARM (arm64)</t>
+  </si>
+  <si>
+    <t>提供商 (例如，Amazon Web Services)</t>
+  </si>
+  <si>
+    <r>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>件 (例如，SQL Server)</t>
+    </r>
+  </si>
+  <si>
+    <t>使用共享 AMI 需自行承担风险。Amazon 不保证其他 Amazon EC2 用户共享的 AMI 的完整性或安全性。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AMI 是一种区域性资源。因此，在搜索共享 AMI（公有或私有）时，必须在共享此 AMI 的区域中进行搜索。要使 AMI 能够在其他区域使用，请将该 AMI 复制到该区域并进行共享。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>您可以在不将 AMI 设为公用的情况下，与特定 AWS 账户共享 AMI。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如果您创建了公用 AMI，或与其他 AWS 用户共享了 AMI，您可以创建一个书签 来允许用户访问您的 AMI 并允许他们立即在自己的账户中启动一个实例。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>这是共享 AMI 引用的一种简单方法，借助这种方法，用户无需花时间来查找您的 AMI 即可使用。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>系统准备 (Sysprep) 工具可简化复制 Microsoft Windows 自定义安装的过程。您可以使用 Sysprep 创建标准化 Amazon 系统映像 (AMI)。随后可以通过此标准化映像为 Windows 创建新的 Amazon EC2 实例。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AWS Identity and Access Management (IAM) 是一种 Web 服务，可以帮助您安全地控制对 AWS 资源的访问。您可以使用 IAM 控制对哪个用户进行身份验证 (登录) 和授权 (具有权限) 以使用资源。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>强烈建议您不使用 根用户 执行日常任务，即使是管理任务。请遵守仅将 根用户 用于创建首个 IAM 用户的最佳实践。然后请妥善保存 根用户 凭证，仅用它们执行少数账户和服务管理任务。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IAM 为您提供以下功能：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>对您 AWS 账户的共享访问权限</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>精细权限</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>在 Amazon EC2 上运行的应用程序针对 AWS 资源的安全访问权限</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>多重验证 (MFA)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>联合身份</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>实现保证的身份信息</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PCI DSS 合规性</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>已与很多 AWS 服务集成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最终一致性</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>免费使用</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>IAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础设施包括</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Terms</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Principal</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Request</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Authentication</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Authorization</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>行动或操作</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Resources</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>资源：
+存储在 IAM 中的用户、组、角色、策略和身份提供商对象。与其他 AWS 服务一样，您可以在 IAM 中添加、编辑和删除资源。
+身份
+用于标识和分组的 IAM 资源对象。您可以将策略附加到 IAM 身份。其中包括用户、组和角色。
+实体
+AWS 用于进行身份验证的 IAM 资源对象。这些对象包括 IAM 用户、联合用户和代入的 IAM 角色。
+委托人
+使用 AWS 账户根用户、IAM 用户或 IAM 角色登录并向 AWS 发出请求的人员或应用程序。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>在委托人尝试使用 AWS 管理控制台、AWS API 或 AWS CLI 时，该委托人将向 AWS 发送请求。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>委托人必须使用其凭证进行身份验证（登录到 AWS）以向 AWS 发送请求。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>您还必须获得授权（允许）才能完成您的请求。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>在对您的请求进行身份验证和授权后，AWS 将批准请求中的操作。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仅限首次访问: 您的根用户凭证</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如果您的组织中的用户已通过某种方法进行身份验证 (例如，通过登录到您的公司网络)，则不必为他们创建单独的 IAM 用户。相反，您可以在 AWS 中对这些用户身份进行联合身份验证。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如果您的公司目录是 Microsoft Active Directory，则可以使用 AWS Directory Service 在公司目录与您的 AWS 账户之间建立信任。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如果您创建的移动应用程序或基于 Web 的应用程序可以允许用户通过 Internet 身份提供商 (如 Login with Amazon、Facebook、Google 或任何与 OpenID Connect (OIDC) 兼容的身份提供商) 标识自己，则应用程序可以使用联合访问 AWS。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如果您拥有多个账户，那我们建议您改用该 AWS Organizations 服务来帮助您管理这些权限</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IAM 用户是服务中的身份。当您创建 IAM 用户时，他们无法访问您账户中的任何内容，直到您向他们授予权限。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>向用户授予权限的方法是创建基于身份的策略，这是附加到用户或用户所属组的策略。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>可以将 IAM 用户组织为 IAM 组，然后将策略附加到组。这种情况下，各用户仍有自己的凭证，但是组中的所有用户都具有附加到组的权限。使用组可更轻松地管理权限，并遵循我们的 IAM 中的安全最佳实践。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>联合身份用户无法通过与 IAM 用户相同的方式在您的 AWS 账户中获得永久身份。要向联合身份用户分配权限，可以创建称为角色 的实体，并为角色定义权限。当联合用户登录 AWS 时，该用户会与角色关联，被授予角色中定义的权限。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>基于身份的策略控制身份可以在哪些条件下对哪些资源执行哪些操作。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">托管策略 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AWS 托管策略</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>客户托管策略</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>内联策略</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>基于资源的策略控制指定的委托人可以在何种条件下对该资源执行哪些操作。基于资源的策略是内联策略，没有基于资源的托管策略。要启用跨账户访问，您可以将整个账户或其他账户中的 IAM 实体指定为基于资源的策略中的委托人。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IAM 服务仅支持一种类型的基于资源的策略（称为角色信任策略），这种策略附加到 IAM 角色。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>基于属性的访问控制 (ABAC) 是一种授权策略，该策略基于属性来定义权限。在 AWS 中，这些属性称为标签。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4691,7 +4985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4709,6 +5003,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5256,10 +5562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EFE39-E890-4EA9-88FC-B694BF0FB15C}">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.95" x14ac:dyDescent="0.4"/>
@@ -5607,10 +5913,671 @@
         <v>67</v>
       </c>
     </row>
+    <row r="192" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A192" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A194" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A196" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378E1923-06E2-4D88-9321-0CE036BF890E}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.95" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.77734375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06767EA2-45AE-4E20-95B0-3C037B405FFE}">
+  <dimension ref="A1:AK61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.95" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.77734375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B6" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B11" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B19" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+    </row>
+    <row r="29" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B29" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A43" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A46" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A48" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A50" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B54" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C55" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="C56" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B57" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A61" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C20:AK28"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>
--- a/UserGuideMemo.xlsx
+++ b/UserGuideMemo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuojieLi\Desktop\AWS\AWS SSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA84F709-8391-4E3F-B313-D51BB94EF31B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0118B3A-1D67-4CB0-9B26-B5494BD38DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="24983" windowHeight="14889" activeTab="2" xr2:uid="{1A12F790-79B3-4F98-B434-912159B977EA}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="24983" windowHeight="14889" activeTab="3" xr2:uid="{1A12F790-79B3-4F98-B434-912159B977EA}"/>
   </bookViews>
   <sheets>
     <sheet name="EC2" sheetId="1" r:id="rId1"/>
     <sheet name="AMI" sheetId="2" r:id="rId2"/>
     <sheet name="IAM" sheetId="3" r:id="rId3"/>
+    <sheet name="S3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <r>
       <t xml:space="preserve">1，EC2 </t>
@@ -4874,6 +4875,82 @@
   </si>
   <si>
     <t>基于属性的访问控制 (ABAC) 是一种授权策略，该策略基于属性来定义权限。在 AWS 中，这些属性称为标签。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IAM 中使用的传统授权模型称为基于角色的访问控制 (RBAC)。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>在 IAM 中，您通过为不同工作职能创建不同策略来实施 RBAC。然后，您可将策略附加到身份（IAM 用户、用户组或 IAM 角色）。作为最佳实践，您向工作职能授予所需的最小权限。这称为授予最小权限。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IAM 不收费。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>您可以允许一个 AWS 账户中的用户访问另一个 AWS 账户中的资源。为此，请创建一个角色，该角色定义可以访问它的人员以及它向切换到它的用户授予的权限。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IAM 角色非常类似于用户，因为它是一个实体，该实体具有确定其在 AWS 中可执行和不可执行的操作的权限策略。但是，角色没有任何关联的凭证（密码或访问密钥）。角色旨在让需要它的任何人代入，而不是唯一地与某个人员关联。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>出于数据保护目的，我们建议您保护 AWS 账户凭证并使用 IAM 设置单独的用户账户。这仅向每个用户授予履行其工作职责所需的权限。我们还建议您通过以下方式保护您的数据：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>对每个账户使用 Multi-Factor Authentication (MFA)。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用 SSL/TLS 与 AWS 资源进行通信。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用 AWS CloudTrail 设置 API 和用户活动日志记录。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Amazon Simple Storage Service (Amazon S3) 是一项面向 Internet 的存储服务</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>您可以通过 Amazon S3 随时在 Web 上的任何位置存储和检索的任意大小的数据。您可以通过 AWS 管理控制台这一简单直观的 Web 界面来完成这些任务。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>要在 Amazon S3 中存储文件，请将文件上传到存储桶。在将文件作为对象上传时，您可以设置对象以及任何元数据的权限。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>存储桶是存储对象的容器。您可以有一个或多个存储桶。您可以控制每个存储桶的访问权限，并决定哪些用户可以在存储桶中创建、删除和列出对象。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>您还可以选择 Amazon S3 将存储桶及其内容存储到的地理区域，并查看存储桶及其对象的访问日志。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用 Amazon S3，您只需按实际用量付费。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>您无需为创建存储桶付费。只有将对象存储到存储桶中以及从存储桶传入和传出对象才需要付费。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如果您计划删除存储桶，则必须首先清空存储桶，这会删除存储桶中的所有对象。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>无法撤消删除存储桶的操作。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Amazon S3 提供身份验证机制，防止未经授权的用户访问 Amazon S3 中存储的数据。除非另有说明，否则只有 AWS 账户的所有者才能访问上传到 Amazon S3 的数据。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4985,7 +5062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5015,6 +5092,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6018,10 +6098,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06767EA2-45AE-4E20-95B0-3C037B405FFE}">
-  <dimension ref="A1:AK61"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.95" x14ac:dyDescent="0.4"/>
@@ -6572,6 +6652,574 @@
         <v>125</v>
       </c>
     </row>
+    <row r="62" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A62" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A63" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A65" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A67" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A69" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A71" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B72" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B73" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B74" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C20:AK28"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88ACA0-F345-4723-A8EF-8C09B7DDDBCA}">
+  <dimension ref="A1:AK74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.95" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="3.77734375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="19" spans="2:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+    </row>
+    <row r="29" spans="2:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="2:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="2:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="65" spans="1:2" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A65" s="10"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B74" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C20:AK28"/>

--- a/UserGuideMemo.xlsx
+++ b/UserGuideMemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuojieLi\Desktop\AWS\AWS SSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0118B3A-1D67-4CB0-9B26-B5494BD38DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B20455-6BD9-4A8E-83DB-E4B191D887DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="24983" windowHeight="14889" activeTab="3" xr2:uid="{1A12F790-79B3-4F98-B434-912159B977EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <r>
       <t xml:space="preserve">1，EC2 </t>
@@ -4951,6 +4951,202 @@
   </si>
   <si>
     <t>Amazon S3 提供身份验证机制，防止未经授权的用户访问 Amazon S3 中存储的数据。除非另有说明，否则只有 AWS 账户的所有者才能访问上传到 Amazon S3 的数据。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>存储于 Amazon S3 中的每个对象都存储在存储桶中。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>存储桶属性</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Server access logging (服务器访问日志记录) – 服务器访问日志记录将详细地记录对您的存储桶提出的各种请求。默认情况下，Amazon S3 不会收集服务器访问日志。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Static website hosting (静态网站托管) – 您可以在 Amazon S3 上托管静态网站。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Object-level logging (对象级别日志记录) – 对象级别日志记录将通过使用 CloudTrail 数据事件来记录对象级别 API 活动。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Tags (标签) – 利用 AWS 成本分配功能，您可以使用存储桶标签对存储桶的使用计费添加注释。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Transfer acceleration (传输加速) – Amazon S3 Transfer Acceleration 可在客户端与 S3 存储桶之间实现快速、轻松、安全的远距离文件传输。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Events (事件) – 您可以启用特定的 Amazon S3 存储桶事件以在每次发生这些事件时向目标发送通知消息。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Requester Pays (申请方付款) – 您可启用申请方付款，以便申请方（而不是存储桶拥有者）支付请求和数据传输费用。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Versioning (版本控制) – 版本控制允许您在一个存储桶中保留对象的多个版本。默认情况下，将为新存储桶禁用版本控制。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>在 Amazon S3 存储桶上启用服务器访问日志记录不收取额外费用。但是，系统提交给您的任何日志文件都会产生普通存储费用。(您可以随时删除日志文件。) 我们不会计算提交日志文件的数据传输费，但会按正常数据传输费率对访问日志文件收费。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CloudTrail 支持记录 Amazon S3 对象级别 API 操作，例如 GetObject、DeleteObject 和 PutObject。这些事件称为数据事件。默认情况下，CloudTrail 跟踪不会记录数据事件，</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>记录数据事件将收取额外费用。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Read (读取) 以指定希望 CloudTrail 记录 Amazon S3 读取 API，例如 GetObject</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Write (写入) 以记录 Amazon S3 写入 API（如 PutObject）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Read (读取) 和 Write (写入) 以同时记录读取和写入对象 API。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>要对存储桶禁用对象级别日志记录，您必须转到 CloudTrail 控制台并从跟踪的 Data events (数据事件) 中删除存储桶名称。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>默认情况下，Amazon S3 阻止对您的账户和存储桶的公有访问权限。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>在编辑 S3 阻止公有访问设置后，您可以添加存储桶策略以授予对存储桶的公有读取访问权限。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如何设置目标以接收事件通知</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Amazon SNS 主题</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Amazon SQS 队列</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Amazon Simple Notification Service (Amazon SNS) 是一项 Web 服务，用于协调和管理向订阅终端节点或客户交付或发送消息的过程。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Lambda 函数</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>您可以使用 Amazon S3 访问点来管理对 S3 对象的访问。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>对象可以是任何类型的文件：图像、备份、数据和电影等。一个存储桶中可以有无限量的对象。可使用 Amazon S3 控制台上传的文件的最大大小为 160 GB。要上传大于 160 GB 的文件，请使用 AWS CLI、AWS 开发工具包或 Amazon S3 REST API。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如果启用了版本控制的存储桶中已存在所上传对象的键名，则 Amazon S3 会创建该对象的另一个版本，而不是替换现有对象。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如何从 S3 存储桶下载对象？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下载对象时需收取数据传输费。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>在还原存档时，您需要为存档和已还原的副本付费。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>恢复已归档到 S3 Glacier 或 S3 Glacier Deep Archive 存储类。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>借助 S3 对象锁定，您可以使用一次写入，多次读取 (WORM) 模式在 Amazon S3 中存储对象。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仅当对象已作为最新 (当前) 版本删除时，您才能取消删除它。您无法取消删除已删除对象的早期版本。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>S3中的文件夹</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>在 Amazon S3、存储区和对象是主要资源，对象存储在存储区中。 Amazon S3 有一个平面结构，而不是您在文件系统中看到的层级。但是，为了对组织简单性的影响， Amazon S3 控制台将文件夹概念支持为分组对象的方法。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Amazon S3 通过使用对象的共享名称前缀来执行此操作（即，对象以共同字符串开头）。对象名称也称为 关键名称.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>例如，您可以在名为 photos 并存储名为 myphoto.jpg 在这里。对象随着密钥名称存储 photos/myphoto.jpg，其中 photos/ 是前缀。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文件夹中可以有文件夹，但存储桶中不能有存储桶。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>不能对文件夹进行重命名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>在 Amazon S3 控制台中将文件夹设为公有后，就不能再将其设为私有。而是必须对公有文件夹中的每个单独的对象设置权限，以使对象不具备公有访问。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如何为 S3 存储桶创建生命周期策略</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>您可以使用声明周期策略来定义您希望 Amazon S3 在对象的生命周期内执行的操作（例如，将对象转化为另一个存储类别、检索它们、或在指定时间段后删除它们）。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如何将复制规则添加到S3存储区</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>复制是在相同或跨不同 AWS 区域中的存储桶自动、异步地复制对象。复制会将源存储桶中新创建的对象和对象更新复制到目标存储桶。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>复制要求在源存储桶和目标存储桶上均启用了版本控制。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>您可以使用 S3 Replication Time Control (S3 RTC) 在可预测的时间范围内在同一 AWS 区域或跨不同 AWS 区域复制您的数据。S3 RTC 在 15 分钟内复制 Amazon S3 中存储的 99.99% 的新对象，并在几秒钟内复制大多数对象。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>您可以创建一条复制规则，以复制存储桶中的所有对象或具有特定键名前缀和/或一个或多个对象标签的对象子集。目标存储桶与源存储桶可以位于同一 AWS 账户中，也可以位于不同的账户中。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>如果目标存储桶与源存储桶位于不同的账户中，您必须向目标存储桶添加存储桶策略以便为源存储桶账户的所有者授予复制目标存储桶中的对象的权利。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用 S3 RTC 时，将收取额外的每 GB 数据传输费用和 CloudWatch 指标费用。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5062,7 +5258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5087,14 +5283,23 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6191,339 +6396,339 @@
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
     </row>
     <row r="29" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
       <c r="B29" s="7" t="s">
@@ -6663,7 +6868,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="16.3" x14ac:dyDescent="0.4">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="8" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6709,10 +6914,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F88ACA0-F345-4723-A8EF-8C09B7DDDBCA}">
-  <dimension ref="A1:AK74"/>
+  <dimension ref="A1:AK88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="AM61" sqref="AM61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.95" x14ac:dyDescent="0.4"/>
@@ -6758,7 +6963,7 @@
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" ht="16.3" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="7"/>
@@ -6793,437 +6998,981 @@
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="19" spans="2:37" ht="15.65" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.4">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="9"/>
-    </row>
-    <row r="29" spans="2:37" ht="15.65" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+    </row>
+    <row r="21" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B21" s="7"/>
+      <c r="C21" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+    </row>
+    <row r="22" spans="1:37" ht="14.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+    </row>
+    <row r="23" spans="1:37" ht="14.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+    </row>
+    <row r="24" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+    </row>
+    <row r="25" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="C25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+    </row>
+    <row r="26" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+    </row>
+    <row r="27" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+    </row>
+    <row r="28" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="C28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+    </row>
+    <row r="29" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
       <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="2:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="C29" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+    </row>
+    <row r="30" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="C30" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+    </row>
+    <row r="31" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="2:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="C31" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+    </row>
+    <row r="32" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="C32" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+    </row>
+    <row r="33" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
       <c r="B33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="C33" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+    </row>
+    <row r="34" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+    </row>
+    <row r="35" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+    </row>
+    <row r="36" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B36" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+    </row>
+    <row r="37" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+    </row>
+    <row r="39" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A39" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B40" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B43" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A45" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:37" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A49" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B50" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
     </row>
-    <row r="53" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A53" s="7"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A58" s="7"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A59" s="7"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A52" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B53" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
       <c r="A61" s="7"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A62" s="7"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B61" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B62" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
       <c r="A63" s="7"/>
-    </row>
-    <row r="65" spans="1:2" ht="16.3" x14ac:dyDescent="0.4">
-      <c r="A65" s="10"/>
-    </row>
-    <row r="67" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A67" s="7"/>
-    </row>
-    <row r="69" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="A69" s="7"/>
-    </row>
-    <row r="71" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B63" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B65" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A67" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B68" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="C69" s="7"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A70" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
       <c r="A71" s="7"/>
-    </row>
-    <row r="72" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="B72" s="7"/>
-    </row>
-    <row r="73" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
-      <c r="B73" s="7"/>
-    </row>
-    <row r="74" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B71" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B73" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
       <c r="B74" s="7"/>
+      <c r="C74" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="79" spans="1:3" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A79" s="8"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B86" s="7"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B87" s="7"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.65" x14ac:dyDescent="0.4">
+      <c r="B88" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C20:AK28"/>
-  </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
